--- a/Function List.xlsx
+++ b/Function List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>Function</t>
   </si>
@@ -93,6 +93,54 @@
   </si>
   <si>
     <t>Standardized</t>
+  </si>
+  <si>
+    <t>calc_td_ema</t>
+  </si>
+  <si>
+    <t>calc_ema</t>
+  </si>
+  <si>
+    <t>calc_emax</t>
+  </si>
+  <si>
+    <t>calc_emay</t>
+  </si>
+  <si>
+    <t>calc_skewt</t>
+  </si>
+  <si>
+    <t>calc_skewtx</t>
+  </si>
+  <si>
+    <t>calc_skewty</t>
+  </si>
+  <si>
+    <t>calc_td_skewt</t>
+  </si>
+  <si>
+    <t>calc_time_int</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>coord_radar</t>
+  </si>
+  <si>
+    <t>draw_hodo</t>
+  </si>
+  <si>
+    <t>XXX TO BE DEPRECIATED. GET plot_hodo!</t>
+  </si>
+  <si>
+    <t>draw_rose</t>
+  </si>
+  <si>
+    <t>XXX TO BE DEPRECIATED. GET plot_rose!</t>
+  </si>
+  <si>
+    <t>file_info</t>
   </si>
 </sst>
 </file>
@@ -109,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,10 +189,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -419,17 +474,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.19921875" customWidth="1"/>
-    <col min="3" max="3" width="32.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -602,6 +657,165 @@
         <v>20230406</v>
       </c>
     </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>20230409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>20230409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>20230409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>20230409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>20230409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>20230409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>20230409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>20230409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38">
+        <v>20230409</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Function List.xlsx
+++ b/Function List.xlsx
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -561,8 +561,11 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>20230409</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -572,8 +575,11 @@
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>20230409</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -748,8 +754,11 @@
       <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>10</v>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>20230409</v>
       </c>
     </row>
     <row r="30" spans="1:4">

--- a/Function List.xlsx
+++ b/Function List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>Function</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>file_info</t>
+  </si>
+  <si>
+    <t>Standarized, but need to validate code</t>
   </si>
 </sst>
 </file>
@@ -476,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -617,8 +620,11 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>20230410</v>
       </c>
     </row>
     <row r="16" spans="1:4">
